--- a/data/trans_orig/P36B07_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B07_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94B560F6-6729-45EB-9CEA-EC8FA175BF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87493BF3-8A3D-4A9A-A9B9-0DA488EBD32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0748B9FC-6465-4DAE-80D7-FAD6AFFC79C3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CD25D20D-6F50-48AD-9152-E652BAC55A13}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>27,57%</t>
   </si>
   <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
   </si>
   <si>
     <t>22,44%</t>
   </si>
   <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
   </si>
   <si>
     <t>24,45%</t>
   </si>
   <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
@@ -104,28 +104,28 @@
     <t>72,43%</t>
   </si>
   <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
   </si>
   <si>
     <t>77,56%</t>
   </si>
   <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
   </si>
   <si>
     <t>75,55%</t>
   </si>
   <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>31,53%</t>
   </si>
   <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
   </si>
   <si>
     <t>25,23%</t>
   </si>
   <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
   </si>
   <si>
     <t>28,32%</t>
   </si>
   <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
   </si>
   <si>
     <t>68,47%</t>
   </si>
   <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
   </si>
   <si>
     <t>74,77%</t>
   </si>
   <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
   </si>
   <si>
     <t>71,68%</t>
   </si>
   <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>20,23%</t>
   </si>
   <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
   </si>
   <si>
     <t>16,44%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
   </si>
   <si>
     <t>18,28%</t>
   </si>
   <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
   </si>
   <si>
     <t>79,77%</t>
   </si>
   <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
   </si>
   <si>
     <t>83,56%</t>
   </si>
   <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
   </si>
   <si>
     <t>81,72%</t>
   </si>
   <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
   </si>
   <si>
     <t>28,64%</t>
   </si>
   <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
   </si>
   <si>
     <t>22,97%</t>
   </si>
   <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
   </si>
   <si>
     <t>25,64%</t>
   </si>
   <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
   </si>
   <si>
     <t>71,36%</t>
   </si>
   <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
   </si>
   <si>
     <t>77,03%</t>
   </si>
   <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
   </si>
   <si>
     <t>74,36%</t>
   </si>
   <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F3ED3A-E248-4A39-96E6-283536E1E438}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF13F67-F675-480C-9D6C-F665ADBB600C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1348,7 +1348,7 @@
         <v>2461</v>
       </c>
       <c r="D14" s="7">
-        <v>2405912</v>
+        <v>2405913</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1363,7 +1363,7 @@
         <v>4234</v>
       </c>
       <c r="I14" s="7">
-        <v>2922230</v>
+        <v>2922229</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1399,7 +1399,7 @@
         <v>3359</v>
       </c>
       <c r="D15" s="7">
-        <v>3371536</v>
+        <v>3371537</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1414,7 +1414,7 @@
         <v>5342</v>
       </c>
       <c r="I15" s="7">
-        <v>3793390</v>
+        <v>3793389</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
